--- a/まとめたデータ/129_5000_5k_100k_5s_330k_fsr.xlsx
+++ b/まとめたデータ/129_5000_5k_100k_5s_330k_fsr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35570E6D-0C6E-4C97-B510-66A0556CABB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB6A3A-F00D-4F8C-8661-81F6B26F4014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="129_5000_5k_100k_5s_330k_fsr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,6 +679,2553 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11455314960629923"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.84978018372703412"/>
+          <c:h val="0.80000801983085446"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>送電側</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$B$1:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41C6-4549-A359-B9D77B2C0CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>受電側</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$C$1:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41C6-4549-A359-B9D77B2C0CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717333416"/>
+        <c:axId val="717332432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717333416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="98000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717332432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717332432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>電力</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(W)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717333416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6166666666666667"/>
+          <c:y val="0.36631889763779529"/>
+          <c:w val="0.15833333333333333"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15891426071741033"/>
+          <c:y val="7.6354257801108188E-2"/>
+          <c:w val="0.755419072615923"/>
+          <c:h val="0.72255431612715082"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>実験</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.372093023255814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1839080459770113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6949152542372881E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4748201438848918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4692307692307685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88043478260869545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8775510204081645</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.270408163265307</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.92105263157895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.047619047619044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.304761904761907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2243-43F8-B0EF-DD39726C2E32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>シミュレーション</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_5000_5k_100k_5s_330k_fsr'!$G$1:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.11820017327304214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9678271266716181E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25861920185125048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5116357258850313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7530864381413924E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33870720029303525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1960267336541186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16868621971418474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9263545707915274E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5429065739635773E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6825849398456594E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9907010959246602E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4252384981491274E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3386812631280163E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16482240001965795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36261980407523509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8522882193005521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5831166522864537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.451015085498479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230.58670394403057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2243-43F8-B0EF-DD39726C2E32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="730838664"/>
+        <c:axId val="730838336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="730838664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730838336"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="730838336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最適動作度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730838664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.625"/>
+          <c:y val="0.57465223097112861"/>
+          <c:w val="0.28333333333333333"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5458EF1E-2E6B-42D7-9F6F-F781573BE11F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBE6554-0033-4226-B82B-498F8957FE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -965,16 +3522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>5</v>
       </c>
@@ -984,8 +3541,25 @@
       <c r="C1">
         <v>0</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>C1/D1*100</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1E-4</v>
+      </c>
+      <c r="G1">
+        <v>0.11820017327304214</v>
+      </c>
+      <c r="H1">
+        <f>(F1-G1)/G1*100</f>
+        <v>-99.915397755154729</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -995,8 +3569,25 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0.13</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E20" si="0">C2/D2*100</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2">
+        <v>8.9678271266716181E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H20" si="1">(F2-G2)/G2*100</f>
+        <v>-99.888490267946196</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1006,8 +3597,26 @@
       <c r="C3">
         <v>0.01</v>
       </c>
+      <c r="D3">
+        <v>0.34</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="2">E3*C3</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.25861920185125048</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>-88.627385555540044</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1017,8 +3626,26 @@
       <c r="C4">
         <v>0.04</v>
       </c>
+      <c r="D4">
+        <v>0.43</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.372093023255814</v>
+      </c>
+      <c r="G4">
+        <v>7.5116357258850313</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-95.046444784674733</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>25</v>
       </c>
@@ -1028,8 +3655,26 @@
       <c r="C5">
         <v>0.25</v>
       </c>
+      <c r="D5">
+        <v>0.87</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>28.735632183908045</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>7.1839080459770113</v>
+      </c>
+      <c r="G5">
+        <v>6.7530864381413924E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>10537.962525405184</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1039,8 +3684,26 @@
       <c r="C6">
         <v>0.01</v>
       </c>
+      <c r="D6">
+        <v>0.59</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.6949152542372881</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.33870720029303525</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-94.99592789060604</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>35</v>
       </c>
@@ -1050,8 +3713,26 @@
       <c r="C7">
         <v>0.3</v>
       </c>
+      <c r="D7">
+        <v>1.39</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>21.582733812949641</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>6.4748201438848918</v>
+      </c>
+      <c r="G7">
+        <v>1.1960267336541186</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>441.3608209327333</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>40</v>
       </c>
@@ -1061,8 +3742,26 @@
       <c r="C8">
         <v>0.28999999999999998</v>
       </c>
+      <c r="D8">
+        <v>1.3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>22.307692307692307</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>6.4692307692307685</v>
+      </c>
+      <c r="G8">
+        <v>0.16868621971418474</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3735.0677252664605</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>45</v>
       </c>
@@ -1072,8 +3771,26 @@
       <c r="C9">
         <v>0.2</v>
       </c>
+      <c r="D9">
+        <v>0.68</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="G9">
+        <v>4.9263545707915274E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>11840.579705839853</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1083,8 +3800,26 @@
       <c r="C10">
         <v>0.02</v>
       </c>
+      <c r="D10">
+        <v>0.36</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555562</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111113</v>
+      </c>
+      <c r="G10">
+        <v>7.5429065739635773E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>47.30543195993144</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>55</v>
       </c>
@@ -1094,8 +3829,25 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1E-4</v>
+      </c>
+      <c r="G11">
+        <v>1.6825849398456594E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-99.405676363600577</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>60</v>
       </c>
@@ -1105,8 +3857,26 @@
       <c r="C12">
         <v>0.06</v>
       </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G12">
+        <v>1.9907010959246602E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4421.0202668922484</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>65</v>
       </c>
@@ -1116,8 +3886,26 @@
       <c r="C13">
         <v>0.14000000000000001</v>
       </c>
+      <c r="D13">
+        <v>0.68</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>20.588235294117649</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2.882352941176471</v>
+      </c>
+      <c r="G13">
+        <v>3.4252384981491274E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>8315.0430480504892</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>70</v>
       </c>
@@ -1127,8 +3915,26 @@
       <c r="C14">
         <v>0.09</v>
       </c>
+      <c r="D14">
+        <v>0.92</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9.7826086956521721</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.88043478260869545</v>
+      </c>
+      <c r="G14">
+        <v>7.3386812631280163E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1099.7179752611598</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>75</v>
       </c>
@@ -1138,8 +3944,26 @@
       <c r="C15">
         <v>0.3</v>
       </c>
+      <c r="D15">
+        <v>1.35</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="G15">
+        <v>0.16482240001965795</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3944.7576699960377</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>80</v>
       </c>
@@ -1149,8 +3973,26 @@
       <c r="C16">
         <v>0.44</v>
       </c>
+      <c r="D16">
+        <v>1.96</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>22.448979591836736</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>9.8775510204081645</v>
+      </c>
+      <c r="G16">
+        <v>0.36261980407523509</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2623.9414145066398</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>85</v>
       </c>
@@ -1160,8 +4002,26 @@
       <c r="C17">
         <v>0.51</v>
       </c>
+      <c r="D17">
+        <v>1.96</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>26.020408163265309</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>13.270408163265307</v>
+      </c>
+      <c r="G17">
+        <v>0.8522882193005521</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1457.0329218155732</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>90</v>
       </c>
@@ -1171,8 +4031,26 @@
       <c r="C18">
         <v>0.55000000000000004</v>
       </c>
+      <c r="D18">
+        <v>1.9</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>28.947368421052634</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>15.92105263157895</v>
+      </c>
+      <c r="G18">
+        <v>2.5831166522864537</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>516.35050888957653</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>95</v>
       </c>
@@ -1182,8 +4060,26 @@
       <c r="C19">
         <v>0.6</v>
       </c>
+      <c r="D19">
+        <v>1.89</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>31.746031746031743</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>19.047619047619044</v>
+      </c>
+      <c r="G19">
+        <v>15.451015085498479</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>23.277460686037063</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1192,10 +4088,39 @@
       </c>
       <c r="C20">
         <v>0.62</v>
+      </c>
+      <c r="D20">
+        <v>2.1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>29.523809523809526</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>18.304761904761907</v>
+      </c>
+      <c r="G20">
+        <v>230.58670394403057</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-92.061657679444977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <v>11.157897340964645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <v>3.900655083891079</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>